--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2594.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2594.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7951907280404383</v>
+        <v>1.581813931465149</v>
       </c>
       <c r="B1">
-        <v>1.410645595568815</v>
+        <v>2.512386083602905</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.672083377838135</v>
       </c>
       <c r="D1">
-        <v>2.129023850205714</v>
+        <v>2.879790544509888</v>
       </c>
       <c r="E1">
-        <v>0.9574327802272157</v>
+        <v>0.9197962880134583</v>
       </c>
     </row>
   </sheetData>
